--- a/DEVOPS.xlsx
+++ b/DEVOPS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awsCourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DocumentsGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7ED941-5A78-48DD-ABA3-07C32C9F2C59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5596320F-F986-44F0-A374-618EF3122886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F3EB39A3-CD51-4EF8-A764-7ABD779A2CB8}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Chef" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -617,9 +616,6 @@
     <t>vi test-cookbook/recipes/testrecipe.rb</t>
   </si>
   <si>
-    <t>chef spec ruby -c test-cookbook/recipes/test-recipe.rb</t>
-  </si>
-  <si>
     <t>ls /</t>
   </si>
   <si>
@@ -852,6 +848,9 @@
   </si>
   <si>
     <t>manages the directory on the node</t>
+  </si>
+  <si>
+    <t>chef exec ruby -c test-cookbook/recipes/test-recipe.rb</t>
   </si>
 </sst>
 </file>
@@ -4326,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64961C61-570E-4CD8-A26D-94711C75317A}">
   <dimension ref="C3:AC190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q199" sqref="Q199"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS158" sqref="AS158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4665,7 +4664,7 @@
     <row r="104" spans="9:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="105" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I105" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J105" s="34"/>
       <c r="K105" s="34"/>
@@ -4738,32 +4737,32 @@
     </row>
     <row r="110" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I110" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="9:26" x14ac:dyDescent="0.25">
       <c r="L117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="9:26" x14ac:dyDescent="0.25">
@@ -4773,13 +4772,13 @@
     </row>
     <row r="119" spans="9:26" x14ac:dyDescent="0.25">
       <c r="L119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="9:26" x14ac:dyDescent="0.25">
       <c r="L121" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M121" s="43"/>
       <c r="N121" s="43"/>
@@ -4968,37 +4967,37 @@
     </row>
     <row r="133" spans="9:26" x14ac:dyDescent="0.25">
       <c r="L133" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="9:26" x14ac:dyDescent="0.25">
       <c r="L134" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="9:26" x14ac:dyDescent="0.25">
       <c r="L135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="9:26" x14ac:dyDescent="0.25">
       <c r="L136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="9:26" x14ac:dyDescent="0.25">
       <c r="L141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="9:26" x14ac:dyDescent="0.25">
@@ -5008,12 +5007,12 @@
     </row>
     <row r="143" spans="9:26" x14ac:dyDescent="0.25">
       <c r="L143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="9:26" x14ac:dyDescent="0.25">
       <c r="L144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="12:29" x14ac:dyDescent="0.25">
@@ -5033,13 +5032,13 @@
     </row>
     <row r="148" spans="12:29" x14ac:dyDescent="0.25">
       <c r="L148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="12:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="150" spans="12:29" x14ac:dyDescent="0.25">
       <c r="L150" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M150" s="34"/>
       <c r="N150" s="34"/>
@@ -5321,17 +5320,17 @@
     </row>
     <row r="165" spans="4:29" x14ac:dyDescent="0.25">
       <c r="L165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="4:29" x14ac:dyDescent="0.25">
       <c r="L166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="4:29" x14ac:dyDescent="0.25">
@@ -5339,7 +5338,7 @@
         <v>28</v>
       </c>
       <c r="F170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="4:29" x14ac:dyDescent="0.25">
@@ -5347,13 +5346,13 @@
         <v>28</v>
       </c>
       <c r="F172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I172" t="s">
         <v>42</v>
       </c>
       <c r="J172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="4:29" x14ac:dyDescent="0.25">
@@ -5361,13 +5360,13 @@
         <v>28</v>
       </c>
       <c r="F174" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I174" t="s">
         <v>42</v>
       </c>
       <c r="J174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="4:29" x14ac:dyDescent="0.25">
@@ -5375,13 +5374,13 @@
         <v>28</v>
       </c>
       <c r="F176" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I176" t="s">
         <v>42</v>
       </c>
       <c r="J176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="5:11" x14ac:dyDescent="0.25">
@@ -5389,13 +5388,13 @@
         <v>28</v>
       </c>
       <c r="F178" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I178" t="s">
         <v>42</v>
       </c>
       <c r="J178" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="5:11" x14ac:dyDescent="0.25">
@@ -5403,13 +5402,13 @@
         <v>28</v>
       </c>
       <c r="F180" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I180" t="s">
         <v>42</v>
       </c>
       <c r="J180" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="5:11" x14ac:dyDescent="0.25">
@@ -5417,13 +5416,13 @@
         <v>28</v>
       </c>
       <c r="F182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J182" t="s">
         <v>42</v>
       </c>
       <c r="K182" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="5:11" x14ac:dyDescent="0.25">
@@ -5431,13 +5430,13 @@
         <v>28</v>
       </c>
       <c r="F184" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H184" t="s">
         <v>42</v>
       </c>
       <c r="I184" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="5:11" x14ac:dyDescent="0.25">
@@ -5445,13 +5444,13 @@
         <v>28</v>
       </c>
       <c r="F186" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I186" t="s">
         <v>42</v>
       </c>
       <c r="J186" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="5:11" x14ac:dyDescent="0.25">
@@ -5459,13 +5458,13 @@
         <v>28</v>
       </c>
       <c r="F188" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H188" t="s">
         <v>42</v>
       </c>
       <c r="I188" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="5:11" x14ac:dyDescent="0.25">
@@ -5473,13 +5472,13 @@
         <v>28</v>
       </c>
       <c r="F190" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I190" t="s">
         <v>42</v>
       </c>
       <c r="J190" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
